--- a/EZTicket/Datasheets/Trains_Unprocessed.xlsx
+++ b/EZTicket/Datasheets/Trains_Unprocessed.xlsx
@@ -14,98 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
-  <x:si>
-    <x:t>TrainName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TrainNumber</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DepartureTime</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ArrivalTime</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TrainDuration</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Price</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rajdhani Exp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>#22691</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8:00 PM, Wed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5:30 AM, Fri</x:t>
-  </x:si>
-  <x:si>
-    <x:t>33 hrs 30 mins</x:t>
-  </x:si>
-  <x:si>
-    <x:t>₹ 3280</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Karnataka Exp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>#12627</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7:20 PM, Wed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9:00 AM, Fri</x:t>
-  </x:si>
-  <x:si>
-    <x:t>37 hrs 40 mins</x:t>
-  </x:si>
-  <x:si>
-    <x:t>₹ 2225</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sampark Kranti</x:t>
-  </x:si>
-  <x:si>
-    <x:t>#12649</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1:50 PM, Wed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8:10 AM, Fri</x:t>
-  </x:si>
-  <x:si>
-    <x:t>42 hrs 20 mins</x:t>
-  </x:si>
-  <x:si>
-    <x:t>₹ 2400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cdg Skranti Exp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>#22685</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2:30 PM, Wed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11:55 AM, Fri</x:t>
-  </x:si>
-  <x:si>
-    <x:t>45 hrs 25 mins</x:t>
-  </x:si>
-  <x:si>
-    <x:t>₹ 2335</x:t>
-  </x:si>
-</x:sst>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -459,108 +368,7 @@
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
-  <x:sheetData>
-    <x:row r="1" spans="1:6">
-      <x:c r="A1" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B1" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C1" s="0" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D1" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E1" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="F1" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:6">
-      <x:c r="A2" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="B2" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C2" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="D2" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="E2" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="F2" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:6">
-      <x:c r="A3" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="B3" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="C3" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D3" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="E3" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="F3" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:6">
-      <x:c r="A4" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="B4" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="C4" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="D4" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="E4" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="F4" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:6">
-      <x:c r="A5" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="C5" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="D5" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="E5" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="F5" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
+  <x:sheetData/>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
